--- a/Code/Results/Cases/Case_9_41/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_9_41/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.011997923040648</v>
+        <v>1.011087998390605</v>
       </c>
       <c r="D2">
-        <v>1.035605155637418</v>
+        <v>1.033999997195802</v>
       </c>
       <c r="E2">
-        <v>1.027748828312796</v>
+        <v>1.026897363058109</v>
       </c>
       <c r="F2">
-        <v>1.04076814956206</v>
+        <v>1.039749669548377</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.056081417041024</v>
+        <v>1.055254485562307</v>
       </c>
       <c r="J2">
-        <v>1.033825605923767</v>
+        <v>1.032942052567353</v>
       </c>
       <c r="K2">
-        <v>1.046589776679329</v>
+        <v>1.045005139491445</v>
       </c>
       <c r="L2">
-        <v>1.038834653878228</v>
+        <v>1.037994273595022</v>
       </c>
       <c r="M2">
-        <v>1.051687299564399</v>
+        <v>1.050681670473474</v>
       </c>
       <c r="N2">
-        <v>1.015131232938116</v>
+        <v>1.015903822156004</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.049479366067616</v>
+        <v>1.048683487396688</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.044013278792293</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.042901531455739</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.02400813034729</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.015510506355053</v>
+        <v>1.014472273996379</v>
       </c>
       <c r="D3">
-        <v>1.038024526050424</v>
+        <v>1.036250199247351</v>
       </c>
       <c r="E3">
-        <v>1.03043763402248</v>
+        <v>1.029471246527059</v>
       </c>
       <c r="F3">
-        <v>1.043329307893045</v>
+        <v>1.04219305694559</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.056865563685083</v>
+        <v>1.055950133574352</v>
       </c>
       <c r="J3">
-        <v>1.035587088061548</v>
+        <v>1.034576037336947</v>
       </c>
       <c r="K3">
-        <v>1.048192938156779</v>
+        <v>1.046439346206619</v>
       </c>
       <c r="L3">
-        <v>1.040695326506976</v>
+        <v>1.039740428288138</v>
       </c>
       <c r="M3">
-        <v>1.053436247641942</v>
+        <v>1.052313098626659</v>
       </c>
       <c r="N3">
-        <v>1.0157235098438</v>
+        <v>1.016340058138222</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.050863522958004</v>
+        <v>1.049974637831812</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.045144191302734</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.043912704777882</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024289428403836</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.017746213131771</v>
+        <v>1.016627058692526</v>
       </c>
       <c r="D4">
-        <v>1.03956610147569</v>
+        <v>1.037684607962173</v>
       </c>
       <c r="E4">
-        <v>1.032154488464123</v>
+        <v>1.031115498347215</v>
       </c>
       <c r="F4">
-        <v>1.044964000596256</v>
+        <v>1.04375324179352</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.057352188992927</v>
+        <v>1.056380582677425</v>
       </c>
       <c r="J4">
-        <v>1.036706610455295</v>
+        <v>1.035614797888685</v>
       </c>
       <c r="K4">
-        <v>1.049209345800263</v>
+        <v>1.04734853113369</v>
       </c>
       <c r="L4">
-        <v>1.041879728266363</v>
+        <v>1.040852348555202</v>
       </c>
       <c r="M4">
-        <v>1.054548425436772</v>
+        <v>1.053350795017682</v>
       </c>
       <c r="N4">
-        <v>1.016099978748769</v>
+        <v>1.016617456999426</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.051743724175795</v>
+        <v>1.05079589388658</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.045863756556741</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.044556538551453</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024465374170596</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.018680050763122</v>
+        <v>1.017527260424863</v>
       </c>
       <c r="D5">
-        <v>1.040212027563407</v>
+        <v>1.03828595821875</v>
       </c>
       <c r="E5">
-        <v>1.032873295284826</v>
+        <v>1.031804103458088</v>
       </c>
       <c r="F5">
-        <v>1.045648304560651</v>
+        <v>1.044406554062288</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.057553627142326</v>
+        <v>1.0565586266201</v>
       </c>
       <c r="J5">
-        <v>1.037175047954782</v>
+        <v>1.036049589779539</v>
       </c>
       <c r="K5">
-        <v>1.049635136783258</v>
+        <v>1.04772967990409</v>
       </c>
       <c r="L5">
-        <v>1.04237544723312</v>
+        <v>1.041317886420877</v>
       </c>
       <c r="M5">
-        <v>1.055013736673822</v>
+        <v>1.053785096013665</v>
       </c>
       <c r="N5">
-        <v>1.016257857458171</v>
+        <v>1.016733845509794</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.052111981102568</v>
+        <v>1.051139609107902</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.046171933303098</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.044833861601123</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024538963759666</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.018839507700404</v>
+        <v>1.017680977893948</v>
       </c>
       <c r="D6">
-        <v>1.040324351793252</v>
+        <v>1.038390762434587</v>
       </c>
       <c r="E6">
-        <v>1.032996602413469</v>
+        <v>1.031922258543977</v>
       </c>
       <c r="F6">
-        <v>1.045765755204099</v>
+        <v>1.044518750451354</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.057589324264218</v>
+        <v>1.056590374634789</v>
       </c>
       <c r="J6">
-        <v>1.037256513106253</v>
+        <v>1.036125311992133</v>
       </c>
       <c r="K6">
-        <v>1.04971049412131</v>
+        <v>1.047797504138183</v>
       </c>
       <c r="L6">
-        <v>1.042461310271942</v>
+        <v>1.041398600164422</v>
       </c>
       <c r="M6">
-        <v>1.055094427632118</v>
+        <v>1.053860528575669</v>
       </c>
       <c r="N6">
-        <v>1.016285734008049</v>
+        <v>1.016754433616171</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.052175841575753</v>
+        <v>1.051199308056328</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.046233888612659</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.044891359662852</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024552520592618</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.017767199141965</v>
+        <v>1.016654407780489</v>
       </c>
       <c r="D7">
-        <v>1.039585961686183</v>
+        <v>1.037708626259733</v>
       </c>
       <c r="E7">
-        <v>1.03217195907641</v>
+        <v>1.031138217850656</v>
       </c>
       <c r="F7">
-        <v>1.04498080514922</v>
+        <v>1.043774143530978</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.057360671428525</v>
+        <v>1.056391281296406</v>
       </c>
       <c r="J7">
-        <v>1.036721155932697</v>
+        <v>1.03563553934681</v>
       </c>
       <c r="K7">
-        <v>1.049226139041135</v>
+        <v>1.047369428826967</v>
       </c>
       <c r="L7">
-        <v>1.041894127407529</v>
+        <v>1.040871933528957</v>
       </c>
       <c r="M7">
-        <v>1.054562218392242</v>
+        <v>1.0533686358061</v>
       </c>
       <c r="N7">
-        <v>1.016106021598078</v>
+        <v>1.016649721466923</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.051754640208326</v>
+        <v>1.050810013476327</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.045895578120861</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.044593261885036</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024471288295427</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.013203319092699</v>
+        <v>1.012271063691456</v>
       </c>
       <c r="D8">
-        <v>1.036441493882768</v>
+        <v>1.034793587660193</v>
       </c>
       <c r="E8">
-        <v>1.028672044067539</v>
+        <v>1.027799231879204</v>
       </c>
       <c r="F8">
-        <v>1.041647786013801</v>
+        <v>1.040603344357802</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.056357787040647</v>
+        <v>1.055508638282701</v>
       </c>
       <c r="J8">
-        <v>1.034435332654222</v>
+        <v>1.033529199337047</v>
       </c>
       <c r="K8">
-        <v>1.047149470020355</v>
+        <v>1.045522013371531</v>
       </c>
       <c r="L8">
-        <v>1.039477150442525</v>
+        <v>1.038615364266638</v>
       </c>
       <c r="M8">
-        <v>1.052291683711612</v>
+        <v>1.051260032976658</v>
       </c>
       <c r="N8">
-        <v>1.015337722512327</v>
+        <v>1.016140282037885</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.049957689581178</v>
+        <v>1.049141217278568</v>
       </c>
       <c r="Q8">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R8">
-        <v>1.044431756175485</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.043292000512848</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024113258936842</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.004851626318088</v>
+        <v>1.004232322852079</v>
       </c>
       <c r="D9">
-        <v>1.030694085262408</v>
+        <v>1.029453444790898</v>
       </c>
       <c r="E9">
-        <v>1.022309943891991</v>
+        <v>1.021716395486675</v>
       </c>
       <c r="F9">
-        <v>1.035584076287732</v>
+        <v>1.034824472804305</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.054419898362454</v>
+        <v>1.053783154644966</v>
       </c>
       <c r="J9">
-        <v>1.030234216770056</v>
+        <v>1.029636507047609</v>
       </c>
       <c r="K9">
-        <v>1.043308055093551</v>
+        <v>1.042086074324992</v>
       </c>
       <c r="L9">
-        <v>1.035051138532415</v>
+        <v>1.034466697891001</v>
       </c>
       <c r="M9">
-        <v>1.048125052271744</v>
+        <v>1.047376729997338</v>
       </c>
       <c r="N9">
-        <v>1.013924138227619</v>
+        <v>1.015110001565329</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.046660115376699</v>
+        <v>1.046067873237155</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.041712505896303</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.0408591645641</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023424784600508</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9991143624437271</v>
+        <v>0.9987440194423131</v>
       </c>
       <c r="D10">
-        <v>1.026772567460988</v>
+        <v>1.02583457745144</v>
       </c>
       <c r="E10">
-        <v>1.017991959382323</v>
+        <v>1.017617584365618</v>
       </c>
       <c r="F10">
-        <v>1.031495544288516</v>
+        <v>1.030953631609054</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.053041921485679</v>
+        <v>1.052562604351775</v>
       </c>
       <c r="J10">
-        <v>1.027363162622778</v>
+        <v>1.02700755782923</v>
       </c>
       <c r="K10">
-        <v>1.040674693921461</v>
+        <v>1.039752538158182</v>
       </c>
       <c r="L10">
-        <v>1.032043788334843</v>
+        <v>1.031675870384887</v>
       </c>
       <c r="M10">
-        <v>1.045318505648755</v>
+        <v>1.044785628884166</v>
       </c>
       <c r="N10">
-        <v>1.012963817418399</v>
+        <v>1.014529026284174</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.044490003192858</v>
+        <v>1.044068295082771</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.039867282863542</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.039227613949494</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022951752387338</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9969308716629954</v>
+        <v>0.996686338926102</v>
       </c>
       <c r="D11">
-        <v>1.025385118898239</v>
+        <v>1.024580662493391</v>
       </c>
       <c r="E11">
-        <v>1.016514642062258</v>
+        <v>1.016246680374966</v>
       </c>
       <c r="F11">
-        <v>1.030334366579459</v>
+        <v>1.029895059862372</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.052619410267738</v>
+        <v>1.052209937736272</v>
       </c>
       <c r="J11">
-        <v>1.026431889706254</v>
+        <v>1.026197622785456</v>
       </c>
       <c r="K11">
-        <v>1.03984367817074</v>
+        <v>1.039053448637036</v>
       </c>
       <c r="L11">
-        <v>1.03113169487106</v>
+        <v>1.030868576980977</v>
       </c>
       <c r="M11">
-        <v>1.044706031007373</v>
+        <v>1.044274393534317</v>
       </c>
       <c r="N11">
-        <v>1.012695394930467</v>
+        <v>1.014571698652458</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.044438530212857</v>
+        <v>1.044097110299498</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.039312375741171</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.038769200733709</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022842267393969</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9962287377824108</v>
+        <v>0.9960238828960633</v>
       </c>
       <c r="D12">
-        <v>1.024973555065443</v>
+        <v>1.024210381919967</v>
       </c>
       <c r="E12">
-        <v>1.016103054369884</v>
+        <v>1.015867349611547</v>
       </c>
       <c r="F12">
-        <v>1.030120437411135</v>
+        <v>1.029713534453735</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.052523415682673</v>
+        <v>1.052135666778629</v>
       </c>
       <c r="J12">
-        <v>1.026193566235851</v>
+        <v>1.025997477642586</v>
       </c>
       <c r="K12">
-        <v>1.039637447067147</v>
+        <v>1.038887997329506</v>
       </c>
       <c r="L12">
-        <v>1.030928114020828</v>
+        <v>1.030696741781876</v>
       </c>
       <c r="M12">
-        <v>1.044692466883052</v>
+        <v>1.044292783028989</v>
       </c>
       <c r="N12">
-        <v>1.012648800689099</v>
+        <v>1.014642327300364</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.044752180342956</v>
+        <v>1.044436141067602</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.03916656525123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.038652224835199</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022829631606021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9966335025716067</v>
+        <v>0.9963942671460202</v>
       </c>
       <c r="D13">
-        <v>1.025302798395195</v>
+        <v>1.024505248477313</v>
       </c>
       <c r="E13">
-        <v>1.01649726232197</v>
+        <v>1.016230598555993</v>
       </c>
       <c r="F13">
-        <v>1.030640985294185</v>
+        <v>1.030207847942705</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.052687018261672</v>
+        <v>1.052281548399103</v>
       </c>
       <c r="J13">
-        <v>1.026487880175129</v>
+        <v>1.026258833481964</v>
       </c>
       <c r="K13">
-        <v>1.039918315538805</v>
+        <v>1.039135048033224</v>
       </c>
       <c r="L13">
-        <v>1.03127208529264</v>
+        <v>1.031010301970638</v>
       </c>
       <c r="M13">
-        <v>1.045161644898153</v>
+        <v>1.044736156707544</v>
       </c>
       <c r="N13">
-        <v>1.012776514307138</v>
+        <v>1.014708523114842</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.04539830823815</v>
+        <v>1.045061948586064</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.039362667978854</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.038824171682857</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022896119503105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9974191874838058</v>
+        <v>0.9971232046472971</v>
       </c>
       <c r="D14">
-        <v>1.025870343535033</v>
+        <v>1.025015074835052</v>
       </c>
       <c r="E14">
-        <v>1.017138614847166</v>
+        <v>1.016822584701578</v>
       </c>
       <c r="F14">
-        <v>1.031338801923607</v>
+        <v>1.030861411180857</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.052919513535728</v>
+        <v>1.052484091462457</v>
       </c>
       <c r="J14">
-        <v>1.026935534933327</v>
+        <v>1.026651979204478</v>
       </c>
       <c r="K14">
-        <v>1.040336687219983</v>
+        <v>1.039496546110398</v>
       </c>
       <c r="L14">
-        <v>1.031760956189341</v>
+        <v>1.031450637440016</v>
       </c>
       <c r="M14">
-        <v>1.045709189997365</v>
+        <v>1.045240123558532</v>
       </c>
       <c r="N14">
-        <v>1.012945038051052</v>
+        <v>1.014754408573663</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.046003621824098</v>
+        <v>1.045632862102638</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.039659883600101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.039081309934302</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022979041646529</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9978563133044761</v>
+        <v>0.9975306926776727</v>
       </c>
       <c r="D15">
-        <v>1.026176932788219</v>
+        <v>1.02529116568478</v>
       </c>
       <c r="E15">
-        <v>1.017477503569006</v>
+        <v>1.017135963791854</v>
       </c>
       <c r="F15">
-        <v>1.031680081744339</v>
+        <v>1.031179284105975</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.053036741047024</v>
+        <v>1.052585453155315</v>
       </c>
       <c r="J15">
-        <v>1.027166914369215</v>
+        <v>1.026854846660771</v>
       </c>
       <c r="K15">
-        <v>1.040552233931258</v>
+        <v>1.039682015650728</v>
       </c>
       <c r="L15">
-        <v>1.032007038535802</v>
+        <v>1.031671623905022</v>
       </c>
       <c r="M15">
-        <v>1.04595955411189</v>
+        <v>1.045467422349404</v>
       </c>
       <c r="N15">
-        <v>1.013026698223034</v>
+        <v>1.014769537852424</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.046238881041539</v>
+        <v>1.045849900197686</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.039818116743631</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.039218846491778</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023018969207444</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,105 +1307,123 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.000212039686566</v>
+        <v>0.9997405939722263</v>
       </c>
       <c r="D16">
-        <v>1.027785067825136</v>
+        <v>1.026744700672486</v>
       </c>
       <c r="E16">
-        <v>1.019236683740454</v>
+        <v>1.018770139150782</v>
       </c>
       <c r="F16">
-        <v>1.033338267000104</v>
+        <v>1.032719547766959</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.053612534311343</v>
+        <v>1.053080655647509</v>
       </c>
       <c r="J16">
-        <v>1.028340489006098</v>
+        <v>1.02788768950859</v>
       </c>
       <c r="K16">
-        <v>1.041634884280917</v>
+        <v>1.040611986133523</v>
       </c>
       <c r="L16">
-        <v>1.033231404113609</v>
+        <v>1.032772858380982</v>
       </c>
       <c r="M16">
-        <v>1.047095604405585</v>
+        <v>1.046487125508648</v>
       </c>
       <c r="N16">
-        <v>1.013414145539951</v>
+        <v>1.014834213261318</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.047098276458528</v>
+        <v>1.046617321235259</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.040586727448626</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.039879805942974</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023206962825711</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.001608956807347</v>
+        <v>1.001062957094272</v>
       </c>
       <c r="D17">
-        <v>1.028721853569114</v>
+        <v>1.027598410340214</v>
       </c>
       <c r="E17">
-        <v>1.020251336078343</v>
+        <v>1.019720701264927</v>
       </c>
       <c r="F17">
-        <v>1.034241527394801</v>
+        <v>1.033560388926497</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.053928718591098</v>
+        <v>1.053353463606488</v>
       </c>
       <c r="J17">
-        <v>1.029005445281148</v>
+        <v>1.028480348623525</v>
       </c>
       <c r="K17">
-        <v>1.042244353047324</v>
+        <v>1.041139245496943</v>
       </c>
       <c r="L17">
-        <v>1.033913364814444</v>
+        <v>1.033391570189871</v>
       </c>
       <c r="M17">
-        <v>1.047674682807698</v>
+        <v>1.047004503343933</v>
       </c>
       <c r="N17">
-        <v>1.013622766421028</v>
+        <v>1.01488823328253</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.047427597558617</v>
+        <v>1.046897820467175</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.041020210688779</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.040255411275121</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023307797568648</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.002301147319435</v>
+        <v>1.001726557851566</v>
       </c>
       <c r="D18">
-        <v>1.029150140159716</v>
+        <v>1.0279921356304</v>
       </c>
       <c r="E18">
-        <v>1.020699084202918</v>
+        <v>1.020144138878495</v>
       </c>
       <c r="F18">
-        <v>1.0345456809262</v>
+        <v>1.033838836709251</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.05404274443966</v>
+        <v>1.053449331773365</v>
       </c>
       <c r="J18">
-        <v>1.029277501074354</v>
+        <v>1.028724496221317</v>
       </c>
       <c r="K18">
-        <v>1.042483984605063</v>
+        <v>1.041344569607564</v>
       </c>
       <c r="L18">
-        <v>1.034169840153756</v>
+        <v>1.033623987278383</v>
       </c>
       <c r="M18">
-        <v>1.047793612956374</v>
+        <v>1.047097958343914</v>
       </c>
       <c r="N18">
-        <v>1.013689248299573</v>
+        <v>1.014895246880351</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.047285271784126</v>
+        <v>1.04673524308102</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.041178073678964</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.040387881711543</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023335535064122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.002356285627205</v>
+        <v>1.001790367961922</v>
       </c>
       <c r="D19">
-        <v>1.029123307957334</v>
+        <v>1.027972325533258</v>
       </c>
       <c r="E19">
-        <v>1.020631779867023</v>
+        <v>1.020085231190257</v>
       </c>
       <c r="F19">
-        <v>1.034305868307287</v>
+        <v>1.033604215306336</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.053978779722615</v>
+        <v>1.053388821638664</v>
       </c>
       <c r="J19">
-        <v>1.02919646139485</v>
+        <v>1.028651674798251</v>
       </c>
       <c r="K19">
-        <v>1.042395629438366</v>
+        <v>1.04126302650006</v>
       </c>
       <c r="L19">
-        <v>1.03404095138218</v>
+        <v>1.03350331120009</v>
       </c>
       <c r="M19">
-        <v>1.047496080540482</v>
+        <v>1.046805482402783</v>
       </c>
       <c r="N19">
-        <v>1.013631109188216</v>
+        <v>1.014843034272721</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.046726626978503</v>
+        <v>1.046180419975607</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.041121958207315</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.040337207145518</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.0232986181239</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.000621238351875</v>
+        <v>1.000165092104226</v>
       </c>
       <c r="D20">
-        <v>1.027814390970581</v>
+        <v>1.026783416022363</v>
       </c>
       <c r="E20">
-        <v>1.019128154296465</v>
+        <v>1.018679192142322</v>
       </c>
       <c r="F20">
-        <v>1.032573012563044</v>
+        <v>1.031960680860975</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.053417561459727</v>
+        <v>1.052889787869175</v>
       </c>
       <c r="J20">
-        <v>1.028128233289454</v>
+        <v>1.027689651210767</v>
       </c>
       <c r="K20">
-        <v>1.041385175777876</v>
+        <v>1.040371111487581</v>
       </c>
       <c r="L20">
-        <v>1.032842795183665</v>
+        <v>1.032401354411826</v>
       </c>
       <c r="M20">
-        <v>1.046066305560235</v>
+        <v>1.045463893931146</v>
       </c>
       <c r="N20">
-        <v>1.013223249256285</v>
+        <v>1.014614296762138</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.045071330542704</v>
+        <v>1.044594588259597</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.040411432842383</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.039710883046195</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.023079801105246</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9962500962623526</v>
+        <v>0.9960848701161085</v>
       </c>
       <c r="D21">
-        <v>1.02480920377475</v>
+        <v>1.024079239344612</v>
       </c>
       <c r="E21">
-        <v>1.015818579480572</v>
+        <v>1.015621399530089</v>
       </c>
       <c r="F21">
-        <v>1.029391750283281</v>
+        <v>1.029012163119713</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.052322386067239</v>
+        <v>1.051951500958034</v>
       </c>
       <c r="J21">
-        <v>1.025905440388547</v>
+        <v>1.025747198230749</v>
       </c>
       <c r="K21">
-        <v>1.039335323710821</v>
+        <v>1.03861834542337</v>
       </c>
       <c r="L21">
-        <v>1.030506335929797</v>
+        <v>1.030312742677579</v>
       </c>
       <c r="M21">
-        <v>1.043836891516512</v>
+        <v>1.043463976569752</v>
       </c>
       <c r="N21">
-        <v>1.012471618865025</v>
+        <v>1.014510817474374</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.043266344488471</v>
+        <v>1.042971208378507</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.038965336758994</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.038475166740895</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022720594251287</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9934649539512135</v>
+        <v>0.9934834462082038</v>
       </c>
       <c r="D22">
-        <v>1.022899597707778</v>
+        <v>1.022359762404221</v>
       </c>
       <c r="E22">
-        <v>1.013725950859971</v>
+        <v>1.013687747973827</v>
       </c>
       <c r="F22">
-        <v>1.027394973990561</v>
+        <v>1.027162440067908</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.051616331083676</v>
+        <v>1.051344368194733</v>
       </c>
       <c r="J22">
-        <v>1.024494680781197</v>
+        <v>1.024512346043286</v>
       </c>
       <c r="K22">
-        <v>1.038030661214566</v>
+        <v>1.037500911392268</v>
       </c>
       <c r="L22">
-        <v>1.029030311385174</v>
+        <v>1.02899283876237</v>
       </c>
       <c r="M22">
-        <v>1.042442589023994</v>
+        <v>1.042214348319942</v>
       </c>
       <c r="N22">
-        <v>1.011995720062323</v>
+        <v>1.014438481147087</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.042162850927396</v>
+        <v>1.041982214106193</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.038029462287977</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.037670370850906</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022490032299878</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9949388419261289</v>
+        <v>0.994848746195522</v>
       </c>
       <c r="D23">
-        <v>1.023905555184256</v>
+        <v>1.02325702380788</v>
       </c>
       <c r="E23">
-        <v>1.014831347819982</v>
+        <v>1.014699508933467</v>
       </c>
       <c r="F23">
-        <v>1.028449942296547</v>
+        <v>1.028131997768037</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.051988206410533</v>
+        <v>1.051659646063296</v>
       </c>
       <c r="J23">
-        <v>1.025237946286807</v>
+        <v>1.025151762017153</v>
       </c>
       <c r="K23">
-        <v>1.038715659485859</v>
+        <v>1.038078936606459</v>
       </c>
       <c r="L23">
-        <v>1.029808465582916</v>
+        <v>1.029679081954103</v>
       </c>
       <c r="M23">
-        <v>1.043177845056301</v>
+        <v>1.042865620969883</v>
       </c>
       <c r="N23">
-        <v>1.01224520410626</v>
+        <v>1.014432271037994</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.042744755207806</v>
+        <v>1.042497651501808</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.038504196740905</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.038068527680242</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022607648585484</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.000646557740593</v>
+        <v>1.000190773796481</v>
       </c>
       <c r="D24">
-        <v>1.027814950657229</v>
+        <v>1.026783671354575</v>
       </c>
       <c r="E24">
-        <v>1.019129557691749</v>
+        <v>1.018681098899652</v>
       </c>
       <c r="F24">
-        <v>1.032550803286528</v>
+        <v>1.031938442189203</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.053407688870178</v>
+        <v>1.052879738968523</v>
       </c>
       <c r="J24">
-        <v>1.028119741649956</v>
+        <v>1.027681482015924</v>
       </c>
       <c r="K24">
-        <v>1.041370598798289</v>
+        <v>1.040356213489741</v>
       </c>
       <c r="L24">
-        <v>1.032828863374782</v>
+        <v>1.032387907866797</v>
       </c>
       <c r="M24">
-        <v>1.046029426898819</v>
+        <v>1.04542697422593</v>
       </c>
       <c r="N24">
-        <v>1.013214684188789</v>
+        <v>1.014604153939554</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.045001580548682</v>
+        <v>1.044524782449625</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.040373887114073</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.039670436669935</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023071984648688</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.007060663304771</v>
+        <v>1.006348956481433</v>
       </c>
       <c r="D25">
-        <v>1.032220100422626</v>
+        <v>1.030865496602761</v>
       </c>
       <c r="E25">
-        <v>1.023989415385594</v>
+        <v>1.023314068576684</v>
       </c>
       <c r="F25">
-        <v>1.037185290424566</v>
+        <v>1.036344179752226</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.054949121691617</v>
+        <v>1.054252988555936</v>
       </c>
       <c r="J25">
-        <v>1.031352722196202</v>
+        <v>1.030664525910208</v>
       </c>
       <c r="K25">
-        <v>1.044338014223916</v>
+        <v>1.043002841562506</v>
       </c>
       <c r="L25">
-        <v>1.036226400383138</v>
+        <v>1.03556093154871</v>
       </c>
       <c r="M25">
-        <v>1.049232529571883</v>
+        <v>1.048403331046974</v>
       </c>
       <c r="N25">
-        <v>1.014302413058032</v>
+        <v>1.015353064979361</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.047536601477586</v>
+        <v>1.046880352475069</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.042469131982386</v>
+        <v>1.041538562629409</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023611925670756</v>
       </c>
     </row>
   </sheetData>
